--- a/results/I3_N5_M3_T15_C100_DepCentral_s1_P5_res.xlsx
+++ b/results/I3_N5_M3_T15_C100_DepCentral_s1_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1389.396452796499</v>
+        <v>839.9596863901648</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008999824523925781</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.64645279649577</v>
+        <v>23.95968639016486</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.530262044527518</v>
+        <v>6.826797411504206</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.530262044527518</v>
+        <v>6.826797411504206</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>868.7600000000037</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>491.99</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -672,23 +672,12 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +766,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -857,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -868,7 +857,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -879,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -890,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -934,7 +923,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -984,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>11.30463804208573</v>
       </c>
     </row>
     <row r="4">
@@ -992,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1000,7 +989,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.609877556165682</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1008,7 +997,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.25804892475681</v>
+        <v>7.55409141525918</v>
       </c>
     </row>
     <row r="7">
@@ -1016,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.768952703233829</v>
+        <v>5.064995193736195</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.69536195791427</v>
+        <v>13.91429431698742</v>
       </c>
     </row>
     <row r="9">
@@ -1040,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.78831096928433</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1086,10 +1075,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1100,10 +1089,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1114,10 +1103,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1128,10 +1117,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1142,10 +1131,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1156,10 +1145,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1170,10 +1159,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1184,10 +1173,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1198,29 +1187,15 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
@@ -1334,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9">
@@ -1345,7 +1320,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
@@ -1356,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000003</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
@@ -1378,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>109.9349999999997</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1389,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>106.7849999999988</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -1400,7 +1375,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>100.8199999999988</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -1411,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>107.8149999999988</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -1422,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>109.4349999999997</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -1433,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>62.89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -1444,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>61.55999999999913</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
@@ -1455,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>54.16999999999913</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -1466,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>56.28999999999913</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1477,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>60.17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -1488,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>164.9050000000009</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -1499,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>161.4100000000009</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1510,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>164.8650000000009</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -1521,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>169.8800000000009</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
@@ -1532,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>168.9900000000009</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
@@ -1543,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>89.01500000000037</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -1554,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>85.72000000000037</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
@@ -1565,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>84.66500000000036</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
@@ -1576,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>89.62500000000037</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
@@ -1587,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>93.42500000000037</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1598,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>115.6100000000003</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
@@ -1609,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>113.5950000000003</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
@@ -1620,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>115.2400000000003</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35">
@@ -1631,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>111.4400000000003</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36">
@@ -1642,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>113.6550000000003</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
@@ -1653,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>164.9050000000009</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38">
@@ -1664,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>161.4100000000009</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39">
@@ -1675,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>164.8650000000009</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40">
@@ -1686,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>169.8800000000009</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41">
@@ -1697,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>168.9900000000009</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42">
@@ -1708,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>109.9349999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1719,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>106.7849999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1730,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>100.8199999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1741,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>107.8149999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1752,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>109.4349999999997</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1799,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.6100000000003</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1810,7 +1785,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>13.5950000000003</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1821,7 +1796,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>15.24000000000029</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1832,7 +1807,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>11.4400000000003</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1843,7 +1818,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>13.65500000000029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1854,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>64.90500000000091</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -1865,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>61.41000000000091</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -1876,7 +1851,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>64.86500000000089</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
@@ -1887,7 +1862,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>69.88000000000088</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -1898,7 +1873,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>68.99000000000086</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
@@ -1909,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>9.934999999999711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1920,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>6.784999999998838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1931,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8199999999988319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1942,7 +1917,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.81499999999884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1953,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>9.434999999999711</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2011,7 +1986,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2022,7 +1997,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2033,7 +2008,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2044,7 +2019,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2055,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2066,7 +2041,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2077,7 +2052,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2088,7 +2063,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -2099,7 +2074,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2110,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>22.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2121,7 +2096,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>26.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2132,7 +2107,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>20.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2143,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>26.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2154,7 +2129,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>22.575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2165,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -2176,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -2187,7 +2162,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -2198,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2209,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2220,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -2231,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -2242,7 +2217,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2253,7 +2228,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -2264,7 +2239,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2278,7 +2253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2360,7 +2335,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2371,7 +2346,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2382,7 +2357,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2393,78 +2368,12 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
